--- a/medals.xlsx
+++ b/medals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1a7c66da9d715b7/Documents/Programmation/Projets/JO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{1FCF2617-3E82-4AA8-8850-F5289DF50998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3DE587C-10EF-459C-AB2A-7C2E3FBC80C3}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{1FCF2617-3E82-4AA8-8850-F5289DF50998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36DF84B-6274-490B-8F2B-1BBAF6E3716B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{2C29FD2B-6DD3-4FCD-930D-4444EBD12DF5}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="215">
   <si>
     <t>Rang</t>
   </si>
@@ -1930,10 +1930,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7921,10 +7921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6B5906-D615-4B21-BCDB-7A3765BB8D2C}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7960,16 +7960,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7980,16 +7980,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8000,16 +8000,16 @@
         <v>8</v>
       </c>
       <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
       <c r="F4">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8020,36 +8020,36 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8057,19 +8057,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8077,19 +8077,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
       <c r="F8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8097,19 +8097,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8120,7 +8120,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -8129,7 +8129,7 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8140,16 +8140,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8157,19 +8157,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8177,19 +8177,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8197,19 +8197,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8217,16 +8217,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -8237,19 +8237,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8266,10 +8266,10 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8323,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8343,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8397,19 +8397,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8417,7 +8417,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -8426,10 +8426,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8437,18 +8437,38 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>122</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
@@ -9088,7 +9108,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
@@ -9226,7 +9246,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>67</v>
       </c>
@@ -9264,7 +9284,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>69</v>
       </c>
@@ -9362,7 +9382,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
@@ -9380,7 +9400,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>75</v>
       </c>
@@ -9518,7 +9538,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="5" t="s">
         <v>82</v>
       </c>
@@ -9536,7 +9556,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>83</v>
       </c>
@@ -9574,7 +9594,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="10" t="s">
         <v>85</v>
       </c>
@@ -9592,7 +9612,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="5" t="s">
         <v>86</v>
       </c>
@@ -9610,7 +9630,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="10" t="s">
         <v>87</v>
       </c>
@@ -9668,7 +9688,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="5" t="s">
         <v>90</v>
       </c>
@@ -9706,7 +9726,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="5" t="s">
         <v>92</v>
       </c>
@@ -9784,7 +9804,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="5" t="s">
         <v>96</v>
       </c>
@@ -9822,7 +9842,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="5" t="s">
         <v>98</v>
       </c>
@@ -9940,7 +9960,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="5" t="s">
         <v>104</v>
       </c>
@@ -9958,7 +9978,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="10" t="s">
         <v>105</v>
       </c>
@@ -9976,7 +9996,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="5" t="s">
         <v>106</v>
       </c>
@@ -9994,7 +10014,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="10" t="s">
         <v>107</v>
       </c>
@@ -10052,7 +10072,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="5" t="s">
         <v>110</v>
       </c>
@@ -10070,7 +10090,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
@@ -10088,7 +10108,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="5" t="s">
         <v>112</v>
       </c>
@@ -10126,7 +10146,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="5" t="s">
         <v>114</v>
       </c>
@@ -10144,7 +10164,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="10" t="s">
         <v>115</v>
       </c>
@@ -10162,7 +10182,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="5" t="s">
         <v>116</v>
       </c>
@@ -10180,7 +10200,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="17"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="10" t="s">
         <v>117</v>
       </c>
@@ -10198,7 +10218,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="5" t="s">
         <v>118</v>
       </c>
@@ -10216,7 +10236,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="10" t="s">
         <v>119</v>
       </c>
@@ -10234,7 +10254,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="5" t="s">
         <v>120</v>
       </c>
@@ -10253,6 +10273,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A81:A84"/>
     <mergeCell ref="A85:A92"/>
     <mergeCell ref="A56:A59"/>
@@ -10261,11 +10286,6 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/medals.xlsx
+++ b/medals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1a7c66da9d715b7/Documents/Programmation/Projets/JO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{1FCF2617-3E82-4AA8-8850-F5289DF50998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36DF84B-6274-490B-8F2B-1BBAF6E3716B}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{1FCF2617-3E82-4AA8-8850-F5289DF50998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CF17299-6EF7-4119-AF26-B796E2D9EE1E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{2C29FD2B-6DD3-4FCD-930D-4444EBD12DF5}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="216">
   <si>
     <t>Rang</t>
   </si>
@@ -1717,6 +1717,9 @@
   </si>
   <si>
     <t> Vietnam</t>
+  </si>
+  <si>
+    <t> Athlètes neutres indépendants</t>
   </si>
 </sst>
 </file>
@@ -1930,10 +1933,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7921,10 +7924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6B5906-D615-4B21-BCDB-7A3765BB8D2C}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7960,16 +7963,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7977,19 +7980,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7997,19 +8000,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8017,19 +8020,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8037,19 +8040,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8057,19 +8060,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8077,19 +8080,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8097,19 +8100,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8117,19 +8120,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8140,16 +8143,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8160,16 +8163,16 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8177,19 +8180,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8197,19 +8200,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8217,19 +8220,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8237,19 +8240,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8257,19 +8260,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8277,27 +8280,27 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8306,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8317,19 +8320,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8337,19 +8340,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8357,24 +8360,24 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -8383,13 +8386,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8397,7 +8400,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -8406,10 +8409,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8417,19 +8420,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8437,38 +8440,78 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>122</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
@@ -9108,7 +9151,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
@@ -9246,7 +9289,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="10" t="s">
         <v>67</v>
       </c>
@@ -9284,7 +9327,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="10" t="s">
         <v>69</v>
       </c>
@@ -9382,7 +9425,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
@@ -9400,7 +9443,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="10" t="s">
         <v>75</v>
       </c>
@@ -9538,7 +9581,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="5" t="s">
         <v>82</v>
       </c>
@@ -9556,7 +9599,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="10" t="s">
         <v>83</v>
       </c>
@@ -9594,7 +9637,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="10" t="s">
         <v>85</v>
       </c>
@@ -9612,7 +9655,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="5" t="s">
         <v>86</v>
       </c>
@@ -9630,7 +9673,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="10" t="s">
         <v>87</v>
       </c>
@@ -9688,7 +9731,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="5" t="s">
         <v>90</v>
       </c>
@@ -9726,7 +9769,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="5" t="s">
         <v>92</v>
       </c>
@@ -9804,7 +9847,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="5" t="s">
         <v>96</v>
       </c>
@@ -9842,7 +9885,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="5" t="s">
         <v>98</v>
       </c>
@@ -9960,7 +10003,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="5" t="s">
         <v>104</v>
       </c>
@@ -9978,7 +10021,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="10" t="s">
         <v>105</v>
       </c>
@@ -9996,7 +10039,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="5" t="s">
         <v>106</v>
       </c>
@@ -10014,7 +10057,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="10" t="s">
         <v>107</v>
       </c>
@@ -10072,7 +10115,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="5" t="s">
         <v>110</v>
       </c>
@@ -10090,7 +10133,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
@@ -10108,7 +10151,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="5" t="s">
         <v>112</v>
       </c>
@@ -10146,7 +10189,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="5" t="s">
         <v>114</v>
       </c>
@@ -10164,7 +10207,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="10" t="s">
         <v>115</v>
       </c>
@@ -10182,7 +10225,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="5" t="s">
         <v>116</v>
       </c>
@@ -10200,7 +10243,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="10" t="s">
         <v>117</v>
       </c>
@@ -10218,7 +10261,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="16"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="5" t="s">
         <v>118</v>
       </c>
@@ -10236,7 +10279,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="10" t="s">
         <v>119</v>
       </c>
@@ -10254,7 +10297,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="5" t="s">
         <v>120</v>
       </c>
@@ -10273,11 +10316,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A81:A84"/>
     <mergeCell ref="A85:A92"/>
     <mergeCell ref="A56:A59"/>
@@ -10286,6 +10324,11 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
